--- a/PROSPECT43_data.xlsx
+++ b/PROSPECT43_data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\roedeer\Desktop\科研日志\202302 华东电网数据整理\最终数据文件\论文版本_43节点\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\roedeer\Desktop\科研日志\202302 华东电网数据整理\最终数据文件\论文版本_43节点\Github文件\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1B61269-86E5-460B-9997-A686856F95C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76F1298D-92A8-496D-A11E-B4E90D34A530}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="67080" yWindow="-120" windowWidth="21840" windowHeight="37920" firstSheet="6" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="21120" firstSheet="9" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Profile" sheetId="14" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3480" uniqueCount="395">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3480" uniqueCount="412">
   <si>
     <t>Bus No.</t>
   </si>
@@ -1516,10 +1516,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>Cost of demand response (CNY/MWh)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>Load type number</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -1545,6 +1541,78 @@
   </si>
   <si>
     <t>R1*</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stage 1 (10^4 CNY/MW)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stage 2 (10^4 CNY/MW)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stage 3 (10^4 CNY/MW)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stage 4 (10^4 CNY/MW)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stage 5 (10^4 CNY/MW)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stage 6 (10^4 CNY/MW)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stage 7 (10^4 CNY/MW)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stage 8 (10^4 CNY/MW)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>R1 (10^4 CNY/MWh)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>R2 (10^4 CNY/MWh)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>R3 (10^4 CNY/MWh)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>R4 (10^4 CNY/MWh)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>R5 (10^4 CNY/MWh)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ER1 (10^4 CNY/MWh)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ER2 (10^4 CNY/MWh)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ER3 (10^4 CNY/MWh)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cost of shift-type demand response (CNY/MWh)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cost of shave-type demand response (CNY/MWh)</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1638,7 +1706,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1648,12 +1716,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1966,7 +2028,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="137">
+  <cellXfs count="141">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2196,25 +2258,10 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="4" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="4" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2265,7 +2312,6 @@
     <xf numFmtId="10" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2283,6 +2329,34 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="9">
@@ -2575,12 +2649,12 @@
   <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="B17" sqref="A1:B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="45.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -2641,7 +2715,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B8" s="1">
         <v>5</v>
@@ -2705,7 +2779,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>387</v>
+        <v>410</v>
       </c>
       <c r="B16" s="1">
         <v>100</v>
@@ -2713,7 +2787,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>387</v>
+        <v>411</v>
       </c>
       <c r="B17" s="1">
         <v>8000</v>
@@ -2730,14 +2804,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89F4FE0F-E1A5-4215-A5B4-A05E8CFD6977}">
   <dimension ref="A1:J18"/>
   <sheetViews>
-    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C14" sqref="C2:J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="10" width="23.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
@@ -2748,28 +2823,28 @@
         <v>169</v>
       </c>
       <c r="C1" s="31" t="s">
-        <v>186</v>
+        <v>394</v>
       </c>
       <c r="D1" s="31" t="s">
-        <v>187</v>
+        <v>395</v>
       </c>
       <c r="E1" s="31" t="s">
-        <v>188</v>
+        <v>396</v>
       </c>
       <c r="F1" s="31" t="s">
-        <v>189</v>
+        <v>397</v>
       </c>
       <c r="G1" s="31" t="s">
-        <v>190</v>
+        <v>398</v>
       </c>
       <c r="H1" s="31" t="s">
-        <v>191</v>
+        <v>399</v>
       </c>
       <c r="I1" s="31" t="s">
-        <v>192</v>
+        <v>400</v>
       </c>
       <c r="J1" s="32" t="s">
-        <v>193</v>
+        <v>401</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="28.2" thickBot="1" x14ac:dyDescent="0.3">
@@ -3099,7 +3174,7 @@
       <c r="B12" s="29" t="s">
         <v>180</v>
       </c>
-      <c r="C12" s="130">
+      <c r="C12" s="131">
         <v>590</v>
       </c>
       <c r="D12" s="41">
@@ -3131,7 +3206,7 @@
       <c r="B13" s="29" t="s">
         <v>181</v>
       </c>
-      <c r="C13" s="130">
+      <c r="C13" s="131">
         <v>640</v>
       </c>
       <c r="D13" s="41">
@@ -3208,14 +3283,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE99FDD9-AA86-4871-8FCE-17AAA66F6C8A}">
   <dimension ref="A1:J14"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14:G14"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="7" width="20.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.88671875" customWidth="1"/>
+    <col min="9" max="9" width="21.109375" customWidth="1"/>
+    <col min="10" max="10" width="21.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
@@ -3226,28 +3305,28 @@
         <v>169</v>
       </c>
       <c r="C1" s="31" t="s">
-        <v>50</v>
+        <v>402</v>
       </c>
       <c r="D1" s="31" t="s">
-        <v>52</v>
+        <v>403</v>
       </c>
       <c r="E1" s="31" t="s">
-        <v>56</v>
+        <v>404</v>
       </c>
       <c r="F1" s="31" t="s">
-        <v>57</v>
+        <v>405</v>
       </c>
       <c r="G1" s="31" t="s">
-        <v>58</v>
+        <v>406</v>
       </c>
       <c r="H1" s="31" t="s">
-        <v>59</v>
+        <v>407</v>
       </c>
       <c r="I1" s="31" t="s">
-        <v>60</v>
+        <v>408</v>
       </c>
       <c r="J1" s="32" t="s">
-        <v>61</v>
+        <v>409</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="28.2" thickBot="1" x14ac:dyDescent="0.3">
@@ -3678,8 +3757,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF7FABBF-A8F8-4AC1-A676-C63A2859BC29}">
   <dimension ref="A1:P12"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="K2" sqref="B2:K3"/>
+    <sheetView topLeftCell="D1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2:P13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -3774,14 +3853,14 @@
       <c r="F2" s="99">
         <v>12</v>
       </c>
-      <c r="G2" s="99">
+      <c r="G2" s="137">
         <v>6.2</v>
       </c>
       <c r="H2" s="99">
         <v>2.4111384120171674E-2</v>
       </c>
       <c r="I2" s="99">
-        <v>100</v>
+        <v>0.108</v>
       </c>
       <c r="J2" s="99">
         <v>350</v>
@@ -3824,14 +3903,14 @@
       <c r="F3" s="100">
         <v>6</v>
       </c>
-      <c r="G3" s="100">
+      <c r="G3" s="138">
         <v>6.2</v>
       </c>
       <c r="H3" s="100">
         <v>2.6425192307692309E-2</v>
       </c>
       <c r="I3" s="100">
-        <v>30</v>
+        <v>0.108</v>
       </c>
       <c r="J3" s="100">
         <v>420</v>
@@ -3874,14 +3953,14 @@
       <c r="F4" s="100">
         <v>1</v>
       </c>
-      <c r="G4" s="100">
+      <c r="G4" s="138">
         <v>9.8000000000000007</v>
       </c>
       <c r="H4" s="100">
         <v>4.4778749999999999E-2</v>
       </c>
       <c r="I4" s="100">
-        <v>80</v>
+        <v>3.1E-2</v>
       </c>
       <c r="J4" s="100">
         <v>200</v>
@@ -3924,7 +4003,7 @@
       <c r="F5" s="100">
         <v>0</v>
       </c>
-      <c r="G5" s="100">
+      <c r="G5" s="138">
         <v>25.93</v>
       </c>
       <c r="H5" s="100">
@@ -3965,23 +4044,23 @@
       <c r="C6" s="100">
         <v>70</v>
       </c>
-      <c r="D6" s="101">
+      <c r="D6" s="132">
         <v>0.1</v>
       </c>
-      <c r="E6" s="101">
+      <c r="E6" s="132">
         <v>48</v>
       </c>
-      <c r="F6" s="101">
+      <c r="F6" s="132">
         <v>12</v>
       </c>
-      <c r="G6" s="100">
+      <c r="G6" s="139">
         <v>55.64</v>
       </c>
-      <c r="H6" s="100">
+      <c r="H6" s="132">
         <v>4.7840000000000001E-3</v>
       </c>
-      <c r="I6" s="101">
-        <v>120</v>
+      <c r="I6" s="132">
+        <v>2.2000000000000002</v>
       </c>
       <c r="J6" s="100">
         <v>1750</v>
@@ -4015,22 +4094,22 @@
       <c r="C7" s="100">
         <v>0</v>
       </c>
-      <c r="D7" s="100">
+      <c r="D7" s="132">
         <v>100</v>
       </c>
-      <c r="E7" s="100">
-        <v>0</v>
-      </c>
-      <c r="F7" s="100">
-        <v>0</v>
-      </c>
-      <c r="G7" s="100">
+      <c r="E7" s="132">
+        <v>0</v>
+      </c>
+      <c r="F7" s="132">
+        <v>0</v>
+      </c>
+      <c r="G7" s="139">
         <v>6.65</v>
       </c>
-      <c r="H7" s="100">
-        <v>0</v>
-      </c>
-      <c r="I7" s="100">
+      <c r="H7" s="132">
+        <v>0</v>
+      </c>
+      <c r="I7" s="132">
         <v>0</v>
       </c>
       <c r="J7" s="100">
@@ -4065,22 +4144,22 @@
       <c r="C8" s="100">
         <v>0</v>
       </c>
-      <c r="D8" s="100">
+      <c r="D8" s="132">
         <v>100</v>
       </c>
-      <c r="E8" s="100">
-        <v>0</v>
-      </c>
-      <c r="F8" s="100">
-        <v>0</v>
-      </c>
-      <c r="G8" s="100">
+      <c r="E8" s="132">
+        <v>0</v>
+      </c>
+      <c r="F8" s="132">
+        <v>0</v>
+      </c>
+      <c r="G8" s="139">
         <v>6.3</v>
       </c>
-      <c r="H8" s="100">
-        <v>0</v>
-      </c>
-      <c r="I8" s="100">
+      <c r="H8" s="132">
+        <v>0</v>
+      </c>
+      <c r="I8" s="132">
         <v>0</v>
       </c>
       <c r="J8" s="100">
@@ -4115,22 +4194,22 @@
       <c r="C9" s="100">
         <v>0</v>
       </c>
-      <c r="D9" s="100">
+      <c r="D9" s="132">
         <v>100</v>
       </c>
-      <c r="E9" s="100">
-        <v>0</v>
-      </c>
-      <c r="F9" s="100">
-        <v>0</v>
-      </c>
-      <c r="G9" s="100">
+      <c r="E9" s="132">
+        <v>0</v>
+      </c>
+      <c r="F9" s="132">
+        <v>0</v>
+      </c>
+      <c r="G9" s="139">
         <v>54.04744800000001</v>
       </c>
-      <c r="H9" s="100">
-        <v>0</v>
-      </c>
-      <c r="I9" s="100">
+      <c r="H9" s="132">
+        <v>0</v>
+      </c>
+      <c r="I9" s="132">
         <v>0</v>
       </c>
       <c r="J9" s="100">
@@ -4151,7 +4230,7 @@
       <c r="O9" s="100">
         <v>40</v>
       </c>
-      <c r="P9" s="102">
+      <c r="P9" s="101">
         <v>2.4</v>
       </c>
     </row>
@@ -4165,22 +4244,22 @@
       <c r="C10" s="100">
         <v>0</v>
       </c>
-      <c r="D10" s="100">
+      <c r="D10" s="132">
         <v>100</v>
       </c>
-      <c r="E10" s="100">
-        <v>0</v>
-      </c>
-      <c r="F10" s="100">
-        <v>0</v>
-      </c>
-      <c r="G10" s="100">
+      <c r="E10" s="132">
+        <v>0</v>
+      </c>
+      <c r="F10" s="132">
+        <v>0</v>
+      </c>
+      <c r="G10" s="139">
         <v>14.6</v>
       </c>
-      <c r="H10" s="100">
-        <v>0</v>
-      </c>
-      <c r="I10" s="100">
+      <c r="H10" s="132">
+        <v>0</v>
+      </c>
+      <c r="I10" s="132">
         <v>0</v>
       </c>
       <c r="J10" s="100">
@@ -4215,22 +4294,22 @@
       <c r="C11" s="100">
         <v>0</v>
       </c>
-      <c r="D11" s="100">
+      <c r="D11" s="132">
         <v>100</v>
       </c>
-      <c r="E11" s="100">
-        <v>0</v>
-      </c>
-      <c r="F11" s="100">
-        <v>0</v>
-      </c>
-      <c r="G11" s="100">
+      <c r="E11" s="132">
+        <v>0</v>
+      </c>
+      <c r="F11" s="132">
+        <v>0</v>
+      </c>
+      <c r="G11" s="139">
         <v>43.45</v>
       </c>
-      <c r="H11" s="100">
-        <v>0</v>
-      </c>
-      <c r="I11" s="100">
+      <c r="H11" s="132">
+        <v>0</v>
+      </c>
+      <c r="I11" s="132">
         <v>0</v>
       </c>
       <c r="J11" s="100">
@@ -4262,34 +4341,34 @@
       <c r="B12" s="37" t="s">
         <v>182</v>
       </c>
-      <c r="C12" s="103">
-        <v>0</v>
-      </c>
-      <c r="D12" s="104">
+      <c r="C12" s="102">
+        <v>0</v>
+      </c>
+      <c r="D12" s="133">
         <v>0.1</v>
       </c>
-      <c r="E12" s="103">
-        <v>0</v>
-      </c>
-      <c r="F12" s="103">
-        <v>0</v>
-      </c>
-      <c r="G12" s="104">
+      <c r="E12" s="133">
+        <v>0</v>
+      </c>
+      <c r="F12" s="133">
+        <v>0</v>
+      </c>
+      <c r="G12" s="140">
         <v>15.772</v>
       </c>
-      <c r="H12" s="104">
+      <c r="H12" s="133">
         <v>1.76475E-2</v>
       </c>
-      <c r="I12" s="104">
-        <v>0</v>
-      </c>
-      <c r="J12" s="103">
-        <v>0</v>
-      </c>
-      <c r="K12" s="103">
+      <c r="I12" s="133">
+        <v>0</v>
+      </c>
+      <c r="J12" s="102">
+        <v>0</v>
+      </c>
+      <c r="K12" s="102">
         <v>80</v>
       </c>
-      <c r="L12" s="103">
+      <c r="L12" s="102">
         <v>0</v>
       </c>
       <c r="M12" s="92" t="s">
@@ -4317,7 +4396,7 @@
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+      <selection activeCell="G3" sqref="C2:G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -4442,7 +4521,7 @@
   <sheetData>
     <row r="1" spans="1:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="31" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B1" s="31" t="s">
         <v>145</v>
@@ -4473,8 +4552,8 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="131" t="s">
-        <v>389</v>
+      <c r="A2" s="125" t="s">
+        <v>388</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>50</v>
@@ -4505,7 +4584,7 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="132"/>
+      <c r="A3" s="126"/>
       <c r="B3" s="1" t="s">
         <v>52</v>
       </c>
@@ -4535,7 +4614,7 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="132"/>
+      <c r="A4" s="126"/>
       <c r="B4" s="1" t="s">
         <v>53</v>
       </c>
@@ -4565,7 +4644,7 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="132"/>
+      <c r="A5" s="126"/>
       <c r="B5" s="1" t="s">
         <v>54</v>
       </c>
@@ -4595,7 +4674,7 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="132"/>
+      <c r="A6" s="126"/>
       <c r="B6" s="1" t="s">
         <v>55</v>
       </c>
@@ -4625,7 +4704,7 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="132"/>
+      <c r="A7" s="126"/>
       <c r="B7" s="1" t="s">
         <v>59</v>
       </c>
@@ -4655,7 +4734,7 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="132"/>
+      <c r="A8" s="126"/>
       <c r="B8" s="1" t="s">
         <v>60</v>
       </c>
@@ -4685,7 +4764,7 @@
       </c>
     </row>
     <row r="9" spans="1:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="133"/>
+      <c r="A9" s="127"/>
       <c r="B9" s="9" t="s">
         <v>61</v>
       </c>
@@ -4715,8 +4794,8 @@
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="131" t="s">
-        <v>390</v>
+      <c r="A10" s="125" t="s">
+        <v>389</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>50</v>
@@ -4747,7 +4826,7 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="132"/>
+      <c r="A11" s="126"/>
       <c r="B11" s="1" t="s">
         <v>52</v>
       </c>
@@ -4777,7 +4856,7 @@
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="132"/>
+      <c r="A12" s="126"/>
       <c r="B12" s="1" t="s">
         <v>53</v>
       </c>
@@ -4807,7 +4886,7 @@
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="132"/>
+      <c r="A13" s="126"/>
       <c r="B13" s="1" t="s">
         <v>54</v>
       </c>
@@ -4837,7 +4916,7 @@
       </c>
     </row>
     <row r="14" spans="1:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="133"/>
+      <c r="A14" s="127"/>
       <c r="B14" s="9" t="s">
         <v>55</v>
       </c>
@@ -4867,11 +4946,11 @@
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="131" t="s">
+      <c r="A15" s="125" t="s">
         <v>185</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C15" s="4">
         <v>2611.8309760961001</v>
@@ -4899,7 +4978,7 @@
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="132"/>
+      <c r="A16" s="126"/>
       <c r="B16" s="1" t="s">
         <v>52</v>
       </c>
@@ -4929,7 +5008,7 @@
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="132"/>
+      <c r="A17" s="126"/>
       <c r="B17" s="1" t="s">
         <v>53</v>
       </c>
@@ -4959,7 +5038,7 @@
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="132"/>
+      <c r="A18" s="126"/>
       <c r="B18" s="1" t="s">
         <v>54</v>
       </c>
@@ -4989,7 +5068,7 @@
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="132"/>
+      <c r="A19" s="126"/>
       <c r="B19" s="1" t="s">
         <v>55</v>
       </c>
@@ -5019,7 +5098,7 @@
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="132"/>
+      <c r="A20" s="126"/>
       <c r="B20" s="1" t="s">
         <v>59</v>
       </c>
@@ -5049,7 +5128,7 @@
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="132"/>
+      <c r="A21" s="126"/>
       <c r="B21" s="1" t="s">
         <v>60</v>
       </c>
@@ -5079,7 +5158,7 @@
       </c>
     </row>
     <row r="22" spans="1:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="133"/>
+      <c r="A22" s="127"/>
       <c r="B22" s="9" t="s">
         <v>61</v>
       </c>
@@ -5109,8 +5188,8 @@
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="131" t="s">
-        <v>391</v>
+      <c r="A23" s="125" t="s">
+        <v>390</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>50</v>
@@ -5141,7 +5220,7 @@
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="132"/>
+      <c r="A24" s="126"/>
       <c r="B24" s="1" t="s">
         <v>52</v>
       </c>
@@ -5171,7 +5250,7 @@
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="132"/>
+      <c r="A25" s="126"/>
       <c r="B25" s="1" t="s">
         <v>53</v>
       </c>
@@ -5201,7 +5280,7 @@
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="132"/>
+      <c r="A26" s="126"/>
       <c r="B26" s="1" t="s">
         <v>54</v>
       </c>
@@ -5231,7 +5310,7 @@
       </c>
     </row>
     <row r="27" spans="1:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="133"/>
+      <c r="A27" s="127"/>
       <c r="B27" s="9" t="s">
         <v>55</v>
       </c>
@@ -5288,389 +5367,389 @@
   <sheetData>
     <row r="1" spans="1:13" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3"/>
-      <c r="B1" s="134" t="s">
+      <c r="B1" s="128" t="s">
         <v>344</v>
       </c>
-      <c r="C1" s="135"/>
-      <c r="D1" s="135"/>
-      <c r="E1" s="135"/>
-      <c r="F1" s="135"/>
-      <c r="G1" s="136"/>
-      <c r="H1" s="134" t="s">
+      <c r="C1" s="129"/>
+      <c r="D1" s="129"/>
+      <c r="E1" s="129"/>
+      <c r="F1" s="129"/>
+      <c r="G1" s="130"/>
+      <c r="H1" s="128" t="s">
         <v>172</v>
       </c>
-      <c r="I1" s="135"/>
-      <c r="J1" s="135"/>
-      <c r="K1" s="135"/>
-      <c r="L1" s="135"/>
-      <c r="M1" s="136"/>
+      <c r="I1" s="129"/>
+      <c r="J1" s="129"/>
+      <c r="K1" s="129"/>
+      <c r="L1" s="129"/>
+      <c r="M1" s="130"/>
     </row>
     <row r="2" spans="1:13" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
         <v>145</v>
       </c>
-      <c r="B2" s="121">
-        <v>1</v>
-      </c>
-      <c r="C2" s="122">
+      <c r="B2" s="116">
+        <v>1</v>
+      </c>
+      <c r="C2" s="117">
         <v>2</v>
       </c>
-      <c r="D2" s="122">
+      <c r="D2" s="117">
         <v>3</v>
       </c>
-      <c r="E2" s="122">
+      <c r="E2" s="117">
         <v>4</v>
       </c>
-      <c r="F2" s="122">
+      <c r="F2" s="117">
         <v>5</v>
       </c>
-      <c r="G2" s="123">
+      <c r="G2" s="118">
         <v>6</v>
       </c>
-      <c r="H2" s="121">
-        <v>1</v>
-      </c>
-      <c r="I2" s="122">
+      <c r="H2" s="116">
+        <v>1</v>
+      </c>
+      <c r="I2" s="117">
         <v>2</v>
       </c>
-      <c r="J2" s="122">
+      <c r="J2" s="117">
         <v>3</v>
       </c>
-      <c r="K2" s="122">
+      <c r="K2" s="117">
         <v>4</v>
       </c>
-      <c r="L2" s="122">
+      <c r="L2" s="117">
         <v>5</v>
       </c>
-      <c r="M2" s="123">
+      <c r="M2" s="118">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="119" t="s">
+      <c r="A3" s="114" t="s">
         <v>50</v>
       </c>
-      <c r="B3" s="124">
-        <v>0</v>
-      </c>
-      <c r="C3" s="125">
-        <v>0</v>
-      </c>
-      <c r="D3" s="125">
+      <c r="B3" s="119">
+        <v>0</v>
+      </c>
+      <c r="C3" s="120">
+        <v>0</v>
+      </c>
+      <c r="D3" s="120">
         <v>0.40106595602931377</v>
       </c>
-      <c r="E3" s="125">
+      <c r="E3" s="120">
         <v>0.21718854097268489</v>
       </c>
-      <c r="F3" s="125">
+      <c r="F3" s="120">
         <v>0.13790806129247168</v>
       </c>
-      <c r="G3" s="126">
+      <c r="G3" s="121">
         <v>0.24383744170552965</v>
       </c>
-      <c r="H3" s="124">
-        <v>0</v>
-      </c>
-      <c r="I3" s="125">
-        <v>0</v>
-      </c>
-      <c r="J3" s="125">
-        <v>0</v>
-      </c>
-      <c r="K3" s="125">
+      <c r="H3" s="119">
+        <v>0</v>
+      </c>
+      <c r="I3" s="120">
+        <v>0</v>
+      </c>
+      <c r="J3" s="120">
+        <v>0</v>
+      </c>
+      <c r="K3" s="120">
         <v>0.73076923076923073</v>
       </c>
-      <c r="L3" s="125">
+      <c r="L3" s="120">
         <v>0.26923076923076922</v>
       </c>
-      <c r="M3" s="126">
+      <c r="M3" s="121">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="119" t="s">
+      <c r="A4" s="114" t="s">
         <v>52</v>
       </c>
-      <c r="B4" s="124">
+      <c r="B4" s="119">
         <v>4.6492138239284858E-2</v>
       </c>
-      <c r="C4" s="125">
+      <c r="C4" s="120">
         <v>0.11014446484156756</v>
       </c>
-      <c r="D4" s="125">
+      <c r="D4" s="120">
         <v>0.20379386490009843</v>
       </c>
-      <c r="E4" s="125">
+      <c r="E4" s="120">
         <v>0.28709394205443373</v>
       </c>
-      <c r="F4" s="125">
+      <c r="F4" s="120">
         <v>0.28729347912842207</v>
       </c>
-      <c r="G4" s="126">
+      <c r="G4" s="121">
         <v>6.5182110836193366E-2</v>
       </c>
-      <c r="H4" s="124">
-        <v>0</v>
-      </c>
-      <c r="I4" s="125">
+      <c r="H4" s="119">
+        <v>0</v>
+      </c>
+      <c r="I4" s="120">
         <v>6.0964345095141328E-2</v>
       </c>
-      <c r="J4" s="125">
+      <c r="J4" s="120">
         <v>0.40236467762793277</v>
       </c>
-      <c r="K4" s="125">
+      <c r="K4" s="120">
         <v>0.43968224644374654</v>
       </c>
-      <c r="L4" s="125">
+      <c r="L4" s="120">
         <v>9.6988730833179382E-2</v>
       </c>
-      <c r="M4" s="126">
+      <c r="M4" s="121">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="119" t="s">
+      <c r="A5" s="114" t="s">
         <v>56</v>
       </c>
-      <c r="B5" s="124">
+      <c r="B5" s="119">
         <v>4.5026531017507233E-2</v>
       </c>
-      <c r="C5" s="125">
+      <c r="C5" s="120">
         <v>4.398745722479553E-2</v>
       </c>
-      <c r="D5" s="125">
+      <c r="D5" s="120">
         <v>0.20993908718521836</v>
       </c>
-      <c r="E5" s="125">
+      <c r="E5" s="120">
         <v>0.35905772170371153</v>
       </c>
-      <c r="F5" s="125">
+      <c r="F5" s="120">
         <v>0.26567962353201963</v>
       </c>
-      <c r="G5" s="126">
+      <c r="G5" s="121">
         <v>7.6309579336747646E-2</v>
       </c>
-      <c r="H5" s="124">
-        <v>0</v>
-      </c>
-      <c r="I5" s="125">
+      <c r="H5" s="119">
+        <v>0</v>
+      </c>
+      <c r="I5" s="120">
         <v>6.0964345095141328E-2</v>
       </c>
-      <c r="J5" s="125">
+      <c r="J5" s="120">
         <v>0.40236467762793277</v>
       </c>
-      <c r="K5" s="125">
+      <c r="K5" s="120">
         <v>0.43968224644374654</v>
       </c>
-      <c r="L5" s="125">
+      <c r="L5" s="120">
         <v>9.6988730833179382E-2</v>
       </c>
-      <c r="M5" s="126">
+      <c r="M5" s="121">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="119" t="s">
+      <c r="A6" s="114" t="s">
         <v>57</v>
       </c>
-      <c r="B6" s="124">
+      <c r="B6" s="119">
         <v>0.31645877776383502</v>
       </c>
-      <c r="C6" s="125">
+      <c r="C6" s="120">
         <v>8.3340444221357807E-2</v>
       </c>
-      <c r="D6" s="125">
+      <c r="D6" s="120">
         <v>8.3573848663571343E-2</v>
       </c>
-      <c r="E6" s="125">
+      <c r="E6" s="120">
         <v>0.34847534195005647</v>
       </c>
-      <c r="F6" s="125">
+      <c r="F6" s="120">
         <v>9.7377337181578622E-2</v>
       </c>
-      <c r="G6" s="126">
+      <c r="G6" s="121">
         <v>7.0774250219600959E-2</v>
       </c>
-      <c r="H6" s="124">
+      <c r="H6" s="119">
         <v>0.17135023989033585</v>
       </c>
-      <c r="I6" s="125">
+      <c r="I6" s="120">
         <v>0.20527758738862234</v>
       </c>
-      <c r="J6" s="125">
+      <c r="J6" s="120">
         <v>0.47601096641535295</v>
       </c>
-      <c r="K6" s="125">
+      <c r="K6" s="120">
         <v>0.14736120630568883</v>
       </c>
-      <c r="L6" s="125">
-        <v>0</v>
-      </c>
-      <c r="M6" s="126">
+      <c r="L6" s="120">
+        <v>0</v>
+      </c>
+      <c r="M6" s="121">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="119" t="s">
+      <c r="A7" s="114" t="s">
         <v>58</v>
       </c>
-      <c r="B7" s="124">
+      <c r="B7" s="119">
         <v>8.4061093555492003E-2</v>
       </c>
-      <c r="C7" s="125">
+      <c r="C7" s="120">
         <v>5.4309106578569299E-2</v>
       </c>
-      <c r="D7" s="125">
+      <c r="D7" s="120">
         <v>8.2351814612659197E-2</v>
       </c>
-      <c r="E7" s="125">
+      <c r="E7" s="120">
         <v>0.35621947716173513</v>
       </c>
-      <c r="F7" s="125">
+      <c r="F7" s="120">
         <v>0.26572823901177822</v>
       </c>
-      <c r="G7" s="126">
+      <c r="G7" s="121">
         <v>0.15733026907976636</v>
       </c>
-      <c r="H7" s="124">
+      <c r="H7" s="119">
         <v>0.10752688172043011</v>
       </c>
-      <c r="I7" s="125">
+      <c r="I7" s="120">
         <v>0.59498207885304655</v>
       </c>
-      <c r="J7" s="125">
+      <c r="J7" s="120">
         <v>0.17921146953405018</v>
       </c>
-      <c r="K7" s="125">
+      <c r="K7" s="120">
         <v>0.11827956989247312</v>
       </c>
-      <c r="L7" s="125">
-        <v>0</v>
-      </c>
-      <c r="M7" s="126">
+      <c r="L7" s="120">
+        <v>0</v>
+      </c>
+      <c r="M7" s="121">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="119" t="s">
+      <c r="A8" s="114" t="s">
         <v>59</v>
       </c>
-      <c r="B8" s="124">
-        <v>0</v>
-      </c>
-      <c r="C8" s="125">
-        <v>0</v>
-      </c>
-      <c r="D8" s="125">
-        <v>0</v>
-      </c>
-      <c r="E8" s="125">
-        <v>0</v>
-      </c>
-      <c r="F8" s="125">
-        <v>0</v>
-      </c>
-      <c r="G8" s="126">
-        <v>0</v>
-      </c>
-      <c r="H8" s="124">
-        <v>0</v>
-      </c>
-      <c r="I8" s="125">
-        <v>0</v>
-      </c>
-      <c r="J8" s="125">
-        <v>0</v>
-      </c>
-      <c r="K8" s="125">
-        <v>0</v>
-      </c>
-      <c r="L8" s="125">
-        <v>0</v>
-      </c>
-      <c r="M8" s="126">
+      <c r="B8" s="119">
+        <v>0</v>
+      </c>
+      <c r="C8" s="120">
+        <v>0</v>
+      </c>
+      <c r="D8" s="120">
+        <v>0</v>
+      </c>
+      <c r="E8" s="120">
+        <v>0</v>
+      </c>
+      <c r="F8" s="120">
+        <v>0</v>
+      </c>
+      <c r="G8" s="121">
+        <v>0</v>
+      </c>
+      <c r="H8" s="119">
+        <v>0</v>
+      </c>
+      <c r="I8" s="120">
+        <v>0</v>
+      </c>
+      <c r="J8" s="120">
+        <v>0</v>
+      </c>
+      <c r="K8" s="120">
+        <v>0</v>
+      </c>
+      <c r="L8" s="120">
+        <v>0</v>
+      </c>
+      <c r="M8" s="121">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="119" t="s">
+      <c r="A9" s="114" t="s">
         <v>60</v>
       </c>
-      <c r="B9" s="124">
-        <v>0</v>
-      </c>
-      <c r="C9" s="125">
-        <v>0</v>
-      </c>
-      <c r="D9" s="125">
-        <v>0</v>
-      </c>
-      <c r="E9" s="125">
-        <v>0</v>
-      </c>
-      <c r="F9" s="125">
-        <v>0</v>
-      </c>
-      <c r="G9" s="126">
-        <v>0</v>
-      </c>
-      <c r="H9" s="124">
-        <v>0</v>
-      </c>
-      <c r="I9" s="125">
-        <v>0</v>
-      </c>
-      <c r="J9" s="125">
-        <v>0</v>
-      </c>
-      <c r="K9" s="125">
-        <v>0</v>
-      </c>
-      <c r="L9" s="125">
-        <v>0</v>
-      </c>
-      <c r="M9" s="126">
+      <c r="B9" s="119">
+        <v>0</v>
+      </c>
+      <c r="C9" s="120">
+        <v>0</v>
+      </c>
+      <c r="D9" s="120">
+        <v>0</v>
+      </c>
+      <c r="E9" s="120">
+        <v>0</v>
+      </c>
+      <c r="F9" s="120">
+        <v>0</v>
+      </c>
+      <c r="G9" s="121">
+        <v>0</v>
+      </c>
+      <c r="H9" s="119">
+        <v>0</v>
+      </c>
+      <c r="I9" s="120">
+        <v>0</v>
+      </c>
+      <c r="J9" s="120">
+        <v>0</v>
+      </c>
+      <c r="K9" s="120">
+        <v>0</v>
+      </c>
+      <c r="L9" s="120">
+        <v>0</v>
+      </c>
+      <c r="M9" s="121">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="120" t="s">
+      <c r="A10" s="115" t="s">
         <v>61</v>
       </c>
-      <c r="B10" s="127">
-        <v>0</v>
-      </c>
-      <c r="C10" s="128">
-        <v>0</v>
-      </c>
-      <c r="D10" s="128">
-        <v>0</v>
-      </c>
-      <c r="E10" s="128">
-        <v>0</v>
-      </c>
-      <c r="F10" s="128">
-        <v>0</v>
-      </c>
-      <c r="G10" s="129">
-        <v>0</v>
-      </c>
-      <c r="H10" s="127">
-        <v>0</v>
-      </c>
-      <c r="I10" s="128">
-        <v>0</v>
-      </c>
-      <c r="J10" s="128">
-        <v>0</v>
-      </c>
-      <c r="K10" s="128">
-        <v>0</v>
-      </c>
-      <c r="L10" s="128">
-        <v>0</v>
-      </c>
-      <c r="M10" s="129">
+      <c r="B10" s="122">
+        <v>0</v>
+      </c>
+      <c r="C10" s="123">
+        <v>0</v>
+      </c>
+      <c r="D10" s="123">
+        <v>0</v>
+      </c>
+      <c r="E10" s="123">
+        <v>0</v>
+      </c>
+      <c r="F10" s="123">
+        <v>0</v>
+      </c>
+      <c r="G10" s="124">
+        <v>0</v>
+      </c>
+      <c r="H10" s="122">
+        <v>0</v>
+      </c>
+      <c r="I10" s="123">
+        <v>0</v>
+      </c>
+      <c r="J10" s="123">
+        <v>0</v>
+      </c>
+      <c r="K10" s="123">
+        <v>0</v>
+      </c>
+      <c r="L10" s="123">
+        <v>0</v>
+      </c>
+      <c r="M10" s="124">
         <v>0</v>
       </c>
     </row>
@@ -5688,8 +5767,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87A300DA-18F3-47F3-ABBF-148C9DD5967F}">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:I6"/>
+    <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -5699,7 +5778,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="118"/>
+      <c r="A1" s="113"/>
       <c r="B1" s="31" t="s">
         <v>186</v>
       </c>
@@ -5763,10 +5842,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H44"/>
+  <dimension ref="A1:F44"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30:A37"/>
+    <sheetView topLeftCell="A16" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -5778,7 +5857,7 @@
     <col min="5" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="80" customFormat="1" ht="36.6" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" s="80" customFormat="1" ht="36.6" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="81" t="s">
         <v>0</v>
       </c>
@@ -5794,7 +5873,7 @@
       <c r="E1" s="84"/>
       <c r="F1" s="85"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="13">
         <v>1</v>
       </c>
@@ -5808,7 +5887,7 @@
         <v>1.652179194133481E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="16">
         <v>2</v>
       </c>
@@ -5822,7 +5901,7 @@
         <v>0.35102063995592192</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="16">
         <v>3</v>
       </c>
@@ -5836,7 +5915,7 @@
         <v>0.31146562550191581</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="18">
         <v>4</v>
       </c>
@@ -5850,7 +5929,7 @@
         <v>0.3209919426008277</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="13">
         <v>5</v>
       </c>
@@ -5864,7 +5943,7 @@
         <v>0.2285241847263505</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="16">
         <v>6</v>
       </c>
@@ -5878,7 +5957,7 @@
         <v>0.1137548417005227</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="16">
         <v>7</v>
       </c>
@@ -5891,11 +5970,8 @@
       <c r="D8" s="17">
         <v>7.3870627329393618E-2</v>
       </c>
-      <c r="H8" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="16">
         <v>8</v>
       </c>
@@ -5909,7 +5985,7 @@
         <v>0.12699736893540581</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="16">
         <v>9</v>
       </c>
@@ -5923,7 +5999,7 @@
         <v>4.1986780109526368E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="16">
         <v>10</v>
       </c>
@@ -5937,7 +6013,7 @@
         <v>6.2544072210443669E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="16">
         <v>11</v>
       </c>
@@ -5951,7 +6027,7 @@
         <v>3.9338078328879603E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="16">
         <v>12</v>
       </c>
@@ -5965,7 +6041,7 @@
         <v>3.2152685673636813E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="16">
         <v>13</v>
       </c>
@@ -5979,7 +6055,7 @@
         <v>4.1818527993125132E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="16">
         <v>14</v>
       </c>
@@ -5993,7 +6069,7 @@
         <v>6.2853768503823459E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="16">
         <v>15</v>
       </c>
@@ -6410,9 +6486,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F63956BE-7E41-443F-8665-D8C4AE0FF706}">
   <dimension ref="A1:Q180"/>
   <sheetViews>
-    <sheetView topLeftCell="L1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A101" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M169" sqref="M169:M180"/>
+    <sheetView topLeftCell="G1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A143" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P168" sqref="P148:P168"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -15365,7 +15441,7 @@
       <c r="H169" s="14">
         <v>1</v>
       </c>
-      <c r="I169" s="105">
+      <c r="I169" s="134">
         <v>4.1357499999999997E-3</v>
       </c>
       <c r="J169" s="56" t="s">
@@ -15418,7 +15494,7 @@
       <c r="H170" s="2">
         <v>1</v>
       </c>
-      <c r="I170" s="106">
+      <c r="I170" s="135">
         <v>3.4301875000000001E-3</v>
       </c>
       <c r="J170" s="55" t="s">
@@ -15471,7 +15547,7 @@
       <c r="H171" s="2">
         <v>1</v>
       </c>
-      <c r="I171" s="106">
+      <c r="I171" s="135">
         <v>7.4467906250000005E-3</v>
       </c>
       <c r="J171" s="55" t="s">
@@ -15524,7 +15600,7 @@
       <c r="H172" s="2">
         <v>1</v>
       </c>
-      <c r="I172" s="106">
+      <c r="I172" s="135">
         <v>7.0023749999999999E-3</v>
       </c>
       <c r="J172" s="55" t="s">
@@ -15577,7 +15653,7 @@
       <c r="H173" s="2">
         <v>1</v>
       </c>
-      <c r="I173" s="106">
+      <c r="I173" s="135">
         <v>7.9035868750000002E-3</v>
       </c>
       <c r="J173" s="55" t="s">
@@ -15630,7 +15706,7 @@
       <c r="H174" s="2">
         <v>1</v>
       </c>
-      <c r="I174" s="106">
+      <c r="I174" s="135">
         <v>5.76653125E-3</v>
       </c>
       <c r="J174" s="55" t="s">
@@ -15683,7 +15759,7 @@
       <c r="H175" s="2">
         <v>1</v>
       </c>
-      <c r="I175" s="106">
+      <c r="I175" s="135">
         <v>9.8002187500000008E-3</v>
       </c>
       <c r="J175" s="55" t="s">
@@ -15736,7 +15812,7 @@
       <c r="H176" s="2">
         <v>1</v>
       </c>
-      <c r="I176" s="106">
+      <c r="I176" s="135">
         <v>4.7459062500000001E-3</v>
       </c>
       <c r="J176" s="55" t="s">
@@ -15789,7 +15865,7 @@
       <c r="H177" s="2">
         <v>1</v>
       </c>
-      <c r="I177" s="106">
+      <c r="I177" s="135">
         <v>4.3110312499999998E-3</v>
       </c>
       <c r="J177" s="55" t="s">
@@ -15842,7 +15918,7 @@
       <c r="H178" s="2">
         <v>1</v>
       </c>
-      <c r="I178" s="106">
+      <c r="I178" s="135">
         <v>4.2378124999999994E-3</v>
       </c>
       <c r="J178" s="55" t="s">
@@ -15895,7 +15971,7 @@
       <c r="H179" s="2">
         <v>1</v>
       </c>
-      <c r="I179" s="106">
+      <c r="I179" s="135">
         <v>8.5222187499999994E-3</v>
       </c>
       <c r="J179" s="55" t="s">
@@ -15948,7 +16024,7 @@
       <c r="H180" s="19">
         <v>1</v>
       </c>
-      <c r="I180" s="107">
+      <c r="I180" s="136">
         <v>6.0017187499999992E-3</v>
       </c>
       <c r="J180" s="57" t="s">
@@ -15987,10 +16063,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3635EE84-C911-4E59-A94E-75D55BF07EF1}">
   <dimension ref="A1:U437"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="K1" sqref="K1"/>
-      <selection pane="bottomLeft" activeCell="E48" sqref="A28:E48"/>
+      <selection pane="bottomLeft" activeCell="J35" sqref="J35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -16020,67 +16096,67 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" s="80" customFormat="1" ht="36.6" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="114" t="s">
+      <c r="A1" s="109" t="s">
         <v>158</v>
       </c>
-      <c r="B1" s="115" t="s">
+      <c r="B1" s="110" t="s">
         <v>144</v>
       </c>
-      <c r="C1" s="115" t="s">
+      <c r="C1" s="110" t="s">
         <v>160</v>
       </c>
-      <c r="D1" s="115" t="s">
+      <c r="D1" s="110" t="s">
         <v>145</v>
       </c>
-      <c r="E1" s="115" t="s">
+      <c r="E1" s="110" t="s">
         <v>159</v>
       </c>
-      <c r="F1" s="115" t="s">
+      <c r="F1" s="110" t="s">
         <v>166</v>
       </c>
-      <c r="G1" s="115" t="s">
+      <c r="G1" s="110" t="s">
         <v>167</v>
       </c>
-      <c r="H1" s="115" t="s">
+      <c r="H1" s="110" t="s">
         <v>161</v>
       </c>
-      <c r="I1" s="115" t="s">
+      <c r="I1" s="110" t="s">
         <v>334</v>
       </c>
-      <c r="J1" s="115" t="s">
+      <c r="J1" s="110" t="s">
         <v>332</v>
       </c>
-      <c r="K1" s="115" t="s">
+      <c r="K1" s="110" t="s">
         <v>333</v>
       </c>
-      <c r="L1" s="116" t="s">
+      <c r="L1" s="111" t="s">
         <v>168</v>
       </c>
-      <c r="M1" s="116" t="s">
+      <c r="M1" s="111" t="s">
         <v>162</v>
       </c>
-      <c r="N1" s="116" t="s">
+      <c r="N1" s="111" t="s">
         <v>163</v>
       </c>
-      <c r="O1" s="116" t="s">
+      <c r="O1" s="111" t="s">
         <v>164</v>
       </c>
-      <c r="P1" s="116" t="s">
+      <c r="P1" s="111" t="s">
         <v>349</v>
       </c>
-      <c r="Q1" s="116" t="s">
+      <c r="Q1" s="111" t="s">
         <v>165</v>
       </c>
-      <c r="R1" s="116" t="s">
+      <c r="R1" s="111" t="s">
         <v>337</v>
       </c>
-      <c r="S1" s="116" t="s">
+      <c r="S1" s="111" t="s">
         <v>335</v>
       </c>
-      <c r="T1" s="116" t="s">
+      <c r="T1" s="111" t="s">
         <v>336</v>
       </c>
-      <c r="U1" s="117" t="s">
+      <c r="U1" s="112" t="s">
         <v>338</v>
       </c>
     </row>
@@ -44435,7 +44511,7 @@
   <dimension ref="A1:K85"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23:K43"/>
+      <selection activeCell="B2" sqref="B2:K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -44483,7 +44559,7 @@
       <c r="J1" s="79" t="s">
         <v>349</v>
       </c>
-      <c r="K1" s="113" t="s">
+      <c r="K1" s="108" t="s">
         <v>165</v>
       </c>
     </row>
@@ -47438,8 +47514,8 @@
   <dimension ref="A1:J49"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E6" sqref="E6"/>
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J31" sqref="A2:J31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -47482,7 +47558,7 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="131" t="s">
+      <c r="A2" s="125" t="s">
         <v>308</v>
       </c>
       <c r="B2" s="4">
@@ -47514,7 +47590,7 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="132"/>
+      <c r="A3" s="126"/>
       <c r="B3" s="1">
         <v>2</v>
       </c>
@@ -47544,7 +47620,7 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="132"/>
+      <c r="A4" s="126"/>
       <c r="B4" s="1">
         <v>3</v>
       </c>
@@ -47574,7 +47650,7 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="132"/>
+      <c r="A5" s="126"/>
       <c r="B5" s="1">
         <v>4</v>
       </c>
@@ -47604,7 +47680,7 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="132"/>
+      <c r="A6" s="126"/>
       <c r="B6" s="1">
         <v>5</v>
       </c>
@@ -47634,7 +47710,7 @@
       </c>
     </row>
     <row r="7" spans="1:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="133"/>
+      <c r="A7" s="127"/>
       <c r="B7" s="9">
         <v>6</v>
       </c>
@@ -47664,7 +47740,7 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="131" t="s">
+      <c r="A8" s="125" t="s">
         <v>309</v>
       </c>
       <c r="B8" s="4">
@@ -47696,7 +47772,7 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="132"/>
+      <c r="A9" s="126"/>
       <c r="B9" s="1">
         <v>2</v>
       </c>
@@ -47726,7 +47802,7 @@
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="132"/>
+      <c r="A10" s="126"/>
       <c r="B10" s="1">
         <v>3</v>
       </c>
@@ -47756,7 +47832,7 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="132"/>
+      <c r="A11" s="126"/>
       <c r="B11" s="1">
         <v>4</v>
       </c>
@@ -47786,7 +47862,7 @@
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="132"/>
+      <c r="A12" s="126"/>
       <c r="B12" s="1">
         <v>5</v>
       </c>
@@ -47816,7 +47892,7 @@
       </c>
     </row>
     <row r="13" spans="1:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="133"/>
+      <c r="A13" s="127"/>
       <c r="B13" s="9">
         <v>6</v>
       </c>
@@ -47846,7 +47922,7 @@
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="131" t="s">
+      <c r="A14" s="125" t="s">
         <v>310</v>
       </c>
       <c r="B14" s="4">
@@ -47878,7 +47954,7 @@
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="132"/>
+      <c r="A15" s="126"/>
       <c r="B15" s="1">
         <v>2</v>
       </c>
@@ -47908,7 +47984,7 @@
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="132"/>
+      <c r="A16" s="126"/>
       <c r="B16" s="1">
         <v>3</v>
       </c>
@@ -47938,7 +48014,7 @@
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="132"/>
+      <c r="A17" s="126"/>
       <c r="B17" s="1">
         <v>4</v>
       </c>
@@ -47968,7 +48044,7 @@
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="132"/>
+      <c r="A18" s="126"/>
       <c r="B18" s="1">
         <v>5</v>
       </c>
@@ -47998,7 +48074,7 @@
       </c>
     </row>
     <row r="19" spans="1:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="133"/>
+      <c r="A19" s="127"/>
       <c r="B19" s="9">
         <v>6</v>
       </c>
@@ -48028,7 +48104,7 @@
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="131" t="s">
+      <c r="A20" s="125" t="s">
         <v>311</v>
       </c>
       <c r="B20" s="4">
@@ -48060,7 +48136,7 @@
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="132"/>
+      <c r="A21" s="126"/>
       <c r="B21" s="1">
         <v>2</v>
       </c>
@@ -48090,7 +48166,7 @@
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="132"/>
+      <c r="A22" s="126"/>
       <c r="B22" s="1">
         <v>3</v>
       </c>
@@ -48120,7 +48196,7 @@
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="132"/>
+      <c r="A23" s="126"/>
       <c r="B23" s="1">
         <v>4</v>
       </c>
@@ -48150,7 +48226,7 @@
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="132"/>
+      <c r="A24" s="126"/>
       <c r="B24" s="1">
         <v>5</v>
       </c>
@@ -48180,7 +48256,7 @@
       </c>
     </row>
     <row r="25" spans="1:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="133"/>
+      <c r="A25" s="127"/>
       <c r="B25" s="9">
         <v>6</v>
       </c>
@@ -48210,7 +48286,7 @@
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="131" t="s">
+      <c r="A26" s="125" t="s">
         <v>312</v>
       </c>
       <c r="B26" s="4">
@@ -48242,7 +48318,7 @@
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="132"/>
+      <c r="A27" s="126"/>
       <c r="B27" s="1">
         <v>2</v>
       </c>
@@ -48272,7 +48348,7 @@
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="132"/>
+      <c r="A28" s="126"/>
       <c r="B28" s="1">
         <v>3</v>
       </c>
@@ -48302,7 +48378,7 @@
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="132"/>
+      <c r="A29" s="126"/>
       <c r="B29" s="1">
         <v>4</v>
       </c>
@@ -48332,7 +48408,7 @@
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="132"/>
+      <c r="A30" s="126"/>
       <c r="B30" s="1">
         <v>5</v>
       </c>
@@ -48362,7 +48438,7 @@
       </c>
     </row>
     <row r="31" spans="1:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="133"/>
+      <c r="A31" s="127"/>
       <c r="B31" s="9">
         <v>6</v>
       </c>
@@ -48392,7 +48468,7 @@
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32" s="131" t="s">
+      <c r="A32" s="125" t="s">
         <v>313</v>
       </c>
       <c r="B32" s="4">
@@ -48424,7 +48500,7 @@
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" s="132"/>
+      <c r="A33" s="126"/>
       <c r="B33" s="1">
         <v>2</v>
       </c>
@@ -48454,7 +48530,7 @@
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A34" s="132"/>
+      <c r="A34" s="126"/>
       <c r="B34" s="1">
         <v>3</v>
       </c>
@@ -48484,7 +48560,7 @@
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A35" s="132"/>
+      <c r="A35" s="126"/>
       <c r="B35" s="1">
         <v>4</v>
       </c>
@@ -48514,7 +48590,7 @@
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A36" s="132"/>
+      <c r="A36" s="126"/>
       <c r="B36" s="1">
         <v>5</v>
       </c>
@@ -48544,7 +48620,7 @@
       </c>
     </row>
     <row r="37" spans="1:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="133"/>
+      <c r="A37" s="127"/>
       <c r="B37" s="9">
         <v>6</v>
       </c>
@@ -48574,7 +48650,7 @@
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A38" s="131" t="s">
+      <c r="A38" s="125" t="s">
         <v>314</v>
       </c>
       <c r="B38" s="4">
@@ -48606,7 +48682,7 @@
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A39" s="132"/>
+      <c r="A39" s="126"/>
       <c r="B39" s="1">
         <v>2</v>
       </c>
@@ -48636,7 +48712,7 @@
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A40" s="132"/>
+      <c r="A40" s="126"/>
       <c r="B40" s="1">
         <v>3</v>
       </c>
@@ -48666,7 +48742,7 @@
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A41" s="132"/>
+      <c r="A41" s="126"/>
       <c r="B41" s="1">
         <v>4</v>
       </c>
@@ -48696,7 +48772,7 @@
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A42" s="132"/>
+      <c r="A42" s="126"/>
       <c r="B42" s="1">
         <v>5</v>
       </c>
@@ -48726,7 +48802,7 @@
       </c>
     </row>
     <row r="43" spans="1:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="133"/>
+      <c r="A43" s="127"/>
       <c r="B43" s="9">
         <v>6</v>
       </c>
@@ -48756,7 +48832,7 @@
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A44" s="131" t="s">
+      <c r="A44" s="125" t="s">
         <v>315</v>
       </c>
       <c r="B44" s="4">
@@ -48788,7 +48864,7 @@
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A45" s="132"/>
+      <c r="A45" s="126"/>
       <c r="B45" s="1">
         <v>2</v>
       </c>
@@ -48818,7 +48894,7 @@
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A46" s="132"/>
+      <c r="A46" s="126"/>
       <c r="B46" s="1">
         <v>3</v>
       </c>
@@ -48848,7 +48924,7 @@
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A47" s="132"/>
+      <c r="A47" s="126"/>
       <c r="B47" s="1">
         <v>4</v>
       </c>
@@ -48878,7 +48954,7 @@
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A48" s="132"/>
+      <c r="A48" s="126"/>
       <c r="B48" s="1">
         <v>5</v>
       </c>
@@ -48908,7 +48984,7 @@
       </c>
     </row>
     <row r="49" spans="1:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="133"/>
+      <c r="A49" s="127"/>
       <c r="B49" s="9">
         <v>6</v>
       </c>
@@ -48958,7 +49034,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37FD9C8C-0E0E-49A1-AACF-0F1527B60868}">
   <dimension ref="A1:J49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="G30" sqref="G30"/>
     </sheetView>
@@ -49003,7 +49079,7 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="131" t="s">
+      <c r="A2" s="125" t="s">
         <v>308</v>
       </c>
       <c r="B2" s="4">
@@ -49035,7 +49111,7 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="132"/>
+      <c r="A3" s="126"/>
       <c r="B3" s="1">
         <v>2</v>
       </c>
@@ -49065,7 +49141,7 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="132"/>
+      <c r="A4" s="126"/>
       <c r="B4" s="1">
         <v>3</v>
       </c>
@@ -49095,7 +49171,7 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="132"/>
+      <c r="A5" s="126"/>
       <c r="B5" s="1">
         <v>4</v>
       </c>
@@ -49125,7 +49201,7 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="132"/>
+      <c r="A6" s="126"/>
       <c r="B6" s="1">
         <v>5</v>
       </c>
@@ -49155,7 +49231,7 @@
       </c>
     </row>
     <row r="7" spans="1:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="133"/>
+      <c r="A7" s="127"/>
       <c r="B7" s="9">
         <v>6</v>
       </c>
@@ -49185,7 +49261,7 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="131" t="s">
+      <c r="A8" s="125" t="s">
         <v>309</v>
       </c>
       <c r="B8" s="4">
@@ -49217,7 +49293,7 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="132"/>
+      <c r="A9" s="126"/>
       <c r="B9" s="1">
         <v>2</v>
       </c>
@@ -49247,7 +49323,7 @@
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="132"/>
+      <c r="A10" s="126"/>
       <c r="B10" s="1">
         <v>3</v>
       </c>
@@ -49277,7 +49353,7 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="132"/>
+      <c r="A11" s="126"/>
       <c r="B11" s="1">
         <v>4</v>
       </c>
@@ -49307,7 +49383,7 @@
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="132"/>
+      <c r="A12" s="126"/>
       <c r="B12" s="1">
         <v>5</v>
       </c>
@@ -49337,7 +49413,7 @@
       </c>
     </row>
     <row r="13" spans="1:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="133"/>
+      <c r="A13" s="127"/>
       <c r="B13" s="9">
         <v>6</v>
       </c>
@@ -49367,7 +49443,7 @@
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="131" t="s">
+      <c r="A14" s="125" t="s">
         <v>310</v>
       </c>
       <c r="B14" s="4">
@@ -49399,7 +49475,7 @@
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="132"/>
+      <c r="A15" s="126"/>
       <c r="B15" s="1">
         <v>2</v>
       </c>
@@ -49429,7 +49505,7 @@
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="132"/>
+      <c r="A16" s="126"/>
       <c r="B16" s="1">
         <v>3</v>
       </c>
@@ -49459,7 +49535,7 @@
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="132"/>
+      <c r="A17" s="126"/>
       <c r="B17" s="1">
         <v>4</v>
       </c>
@@ -49489,7 +49565,7 @@
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="132"/>
+      <c r="A18" s="126"/>
       <c r="B18" s="1">
         <v>5</v>
       </c>
@@ -49519,7 +49595,7 @@
       </c>
     </row>
     <row r="19" spans="1:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="133"/>
+      <c r="A19" s="127"/>
       <c r="B19" s="9">
         <v>6</v>
       </c>
@@ -49549,7 +49625,7 @@
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="131" t="s">
+      <c r="A20" s="125" t="s">
         <v>311</v>
       </c>
       <c r="B20" s="4">
@@ -49581,7 +49657,7 @@
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="132"/>
+      <c r="A21" s="126"/>
       <c r="B21" s="1">
         <v>2</v>
       </c>
@@ -49611,7 +49687,7 @@
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="132"/>
+      <c r="A22" s="126"/>
       <c r="B22" s="1">
         <v>3</v>
       </c>
@@ -49641,7 +49717,7 @@
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="132"/>
+      <c r="A23" s="126"/>
       <c r="B23" s="1">
         <v>4</v>
       </c>
@@ -49671,7 +49747,7 @@
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="132"/>
+      <c r="A24" s="126"/>
       <c r="B24" s="1">
         <v>5</v>
       </c>
@@ -49701,7 +49777,7 @@
       </c>
     </row>
     <row r="25" spans="1:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="133"/>
+      <c r="A25" s="127"/>
       <c r="B25" s="9">
         <v>6</v>
       </c>
@@ -49731,7 +49807,7 @@
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="131" t="s">
+      <c r="A26" s="125" t="s">
         <v>312</v>
       </c>
       <c r="B26" s="4">
@@ -49763,7 +49839,7 @@
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="132"/>
+      <c r="A27" s="126"/>
       <c r="B27" s="1">
         <v>2</v>
       </c>
@@ -49793,7 +49869,7 @@
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="132"/>
+      <c r="A28" s="126"/>
       <c r="B28" s="1">
         <v>3</v>
       </c>
@@ -49823,7 +49899,7 @@
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="132"/>
+      <c r="A29" s="126"/>
       <c r="B29" s="1">
         <v>4</v>
       </c>
@@ -49853,7 +49929,7 @@
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="132"/>
+      <c r="A30" s="126"/>
       <c r="B30" s="1">
         <v>5</v>
       </c>
@@ -49883,7 +49959,7 @@
       </c>
     </row>
     <row r="31" spans="1:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="133"/>
+      <c r="A31" s="127"/>
       <c r="B31" s="9">
         <v>6</v>
       </c>
@@ -49913,7 +49989,7 @@
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32" s="131" t="s">
+      <c r="A32" s="125" t="s">
         <v>313</v>
       </c>
       <c r="B32" s="4">
@@ -49945,7 +50021,7 @@
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" s="132"/>
+      <c r="A33" s="126"/>
       <c r="B33" s="1">
         <v>2</v>
       </c>
@@ -49975,7 +50051,7 @@
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A34" s="132"/>
+      <c r="A34" s="126"/>
       <c r="B34" s="1">
         <v>3</v>
       </c>
@@ -50005,7 +50081,7 @@
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A35" s="132"/>
+      <c r="A35" s="126"/>
       <c r="B35" s="1">
         <v>4</v>
       </c>
@@ -50035,7 +50111,7 @@
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A36" s="132"/>
+      <c r="A36" s="126"/>
       <c r="B36" s="1">
         <v>5</v>
       </c>
@@ -50065,7 +50141,7 @@
       </c>
     </row>
     <row r="37" spans="1:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="133"/>
+      <c r="A37" s="127"/>
       <c r="B37" s="9">
         <v>6</v>
       </c>
@@ -50095,7 +50171,7 @@
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A38" s="131" t="s">
+      <c r="A38" s="125" t="s">
         <v>314</v>
       </c>
       <c r="B38" s="4">
@@ -50127,7 +50203,7 @@
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A39" s="132"/>
+      <c r="A39" s="126"/>
       <c r="B39" s="1">
         <v>2</v>
       </c>
@@ -50157,7 +50233,7 @@
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A40" s="132"/>
+      <c r="A40" s="126"/>
       <c r="B40" s="1">
         <v>3</v>
       </c>
@@ -50187,7 +50263,7 @@
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A41" s="132"/>
+      <c r="A41" s="126"/>
       <c r="B41" s="1">
         <v>4</v>
       </c>
@@ -50217,7 +50293,7 @@
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A42" s="132"/>
+      <c r="A42" s="126"/>
       <c r="B42" s="1">
         <v>5</v>
       </c>
@@ -50247,7 +50323,7 @@
       </c>
     </row>
     <row r="43" spans="1:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="133"/>
+      <c r="A43" s="127"/>
       <c r="B43" s="9">
         <v>6</v>
       </c>
@@ -50277,7 +50353,7 @@
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A44" s="131" t="s">
+      <c r="A44" s="125" t="s">
         <v>315</v>
       </c>
       <c r="B44" s="4">
@@ -50309,7 +50385,7 @@
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A45" s="132"/>
+      <c r="A45" s="126"/>
       <c r="B45" s="1">
         <v>2</v>
       </c>
@@ -50339,7 +50415,7 @@
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A46" s="132"/>
+      <c r="A46" s="126"/>
       <c r="B46" s="1">
         <v>3</v>
       </c>
@@ -50369,7 +50445,7 @@
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A47" s="132"/>
+      <c r="A47" s="126"/>
       <c r="B47" s="1">
         <v>4</v>
       </c>
@@ -50399,7 +50475,7 @@
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A48" s="132"/>
+      <c r="A48" s="126"/>
       <c r="B48" s="1">
         <v>5</v>
       </c>
@@ -50429,7 +50505,7 @@
       </c>
     </row>
     <row r="49" spans="1:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="133"/>
+      <c r="A49" s="127"/>
       <c r="B49" s="9">
         <v>6</v>
       </c>
@@ -50480,7 +50556,7 @@
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane xSplit="1" topLeftCell="G1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="H2" sqref="H2:L44"/>
+      <selection pane="topRight" activeCell="P31" sqref="P31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -50503,50 +50579,50 @@
     <col min="16" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="112" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="108" t="s">
+    <row r="1" spans="1:15" s="107" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="103" t="s">
         <v>144</v>
       </c>
-      <c r="B1" s="109" t="s">
+      <c r="B1" s="104" t="s">
         <v>145</v>
       </c>
-      <c r="C1" s="110" t="s">
+      <c r="C1" s="105" t="s">
         <v>343</v>
       </c>
-      <c r="D1" s="110" t="s">
+      <c r="D1" s="105" t="s">
         <v>156</v>
       </c>
-      <c r="E1" s="109" t="s">
+      <c r="E1" s="104" t="s">
         <v>157</v>
       </c>
-      <c r="F1" s="109" t="s">
+      <c r="F1" s="104" t="s">
         <v>146</v>
       </c>
-      <c r="G1" s="109" t="s">
+      <c r="G1" s="104" t="s">
         <v>147</v>
       </c>
-      <c r="H1" s="109" t="s">
+      <c r="H1" s="104" t="s">
         <v>148</v>
       </c>
-      <c r="I1" s="109" t="s">
+      <c r="I1" s="104" t="s">
         <v>149</v>
       </c>
-      <c r="J1" s="109" t="s">
+      <c r="J1" s="104" t="s">
         <v>150</v>
       </c>
-      <c r="K1" s="109" t="s">
+      <c r="K1" s="104" t="s">
         <v>151</v>
       </c>
-      <c r="L1" s="109" t="s">
+      <c r="L1" s="104" t="s">
         <v>152</v>
       </c>
-      <c r="M1" s="109" t="s">
+      <c r="M1" s="104" t="s">
         <v>153</v>
       </c>
-      <c r="N1" s="109" t="s">
+      <c r="N1" s="104" t="s">
         <v>154</v>
       </c>
-      <c r="O1" s="111" t="s">
+      <c r="O1" s="106" t="s">
         <v>155</v>
       </c>
     </row>
@@ -50588,7 +50664,7 @@
         <v>0</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="N2" s="4">
         <v>0</v>
